--- a/Documentation/Results/EDPM/EnergyAnalysis.xlsx
+++ b/Documentation/Results/EDPM/EnergyAnalysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <t>Idle</t>
   </si>
@@ -50,12 +50,57 @@
   <si>
     <t>IODVS</t>
   </si>
+  <si>
+    <t>inEnergy</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>outEnergy</t>
+  </si>
+  <si>
+    <t>inEnergyDelta</t>
+  </si>
+  <si>
+    <t>outEnergyDelta</t>
+  </si>
+  <si>
+    <t>SerialFlash Read/Modify/Write Energy Consumption</t>
+  </si>
+  <si>
+    <t>SDCard Read/Modify/Write Energy Consumption</t>
+  </si>
+  <si>
+    <t>HIH6130 Measure/Read Energy Consumption</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Erase</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Total Write</t>
+  </si>
+  <si>
+    <t>Total Wait</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +125,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,9 +168,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -136,6 +193,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -461,25 +523,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U8" sqref="R3:U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -492,181 +563,1875 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>3.0954000000000002</v>
+        <f>B23</f>
+        <v>10.240399999999999</v>
       </c>
       <c r="C3">
-        <v>1.1603000000000001</v>
+        <f>D23</f>
+        <v>3.4906000000000001</v>
       </c>
       <c r="D3" s="1">
         <f>(C3-B3)/(ABS(B3))</f>
-        <v>-0.6251534535116624</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.65913440881215568</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>H48</f>
+        <v>10.7328959439632</v>
+      </c>
+      <c r="I3">
+        <f>K48</f>
+        <v>5.6265775954835702</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(I3-H3)/(ABS(H3))</f>
+        <v>-0.4757633331339356</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f>S45</f>
+        <v>10.2773689376482</v>
+      </c>
+      <c r="T3" s="4">
+        <f>U45</f>
+        <v>6.2822829115338701</v>
+      </c>
+      <c r="U3" s="1">
+        <f>(T3-S3)/(ABS(S3))</f>
+        <v>-0.38872653597940576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.7984</v>
+        <f t="shared" ref="B4:B8" si="0">B24</f>
+        <v>13.7919</v>
       </c>
       <c r="C4">
-        <v>4.4473000000000003</v>
+        <f t="shared" ref="C4:C8" si="1">D24</f>
+        <v>17.855799999999999</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D8" si="0">(C4-B4)/(ABS(B4))</f>
-        <v>0.17083508845829828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f t="shared" ref="D4:D8" si="2">(C4-B4)/(ABS(B4))</f>
+        <v>0.29465845895054332</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <f>H49</f>
+        <v>71.5126143304321</v>
+      </c>
+      <c r="I4">
+        <f>K49</f>
+        <v>72.362691718504294</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4:J41" si="3">(I4-H4)/(ABS(H4))</f>
+        <v>1.1887097067159581E-2</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="4">
+        <f t="shared" ref="S4:S11" si="4">S46</f>
+        <v>1.6786557270081099</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T11" si="5">U46</f>
+        <v>1.0474309294178099</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U11" si="6">(T4-S4)/(ABS(S4))</f>
+        <v>-0.3760299312327372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.091699999999999</v>
+        <f t="shared" si="0"/>
+        <v>64.591300000000004</v>
       </c>
       <c r="C5">
-        <v>8.9034999999999993</v>
+        <f t="shared" si="1"/>
+        <v>33.719000000000001</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.50786824897604976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>-0.47796375053606294</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <f>H50</f>
+        <v>2.4706148723044699</v>
+      </c>
+      <c r="I5">
+        <f>K50</f>
+        <v>2.4674010805812698</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3008064345546306E-3</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="4"/>
+        <v>399.07159617236698</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="5"/>
+        <v>245.89278461090899</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.38383792038984654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.9706000000000001</v>
+        <f t="shared" si="0"/>
+        <v>17.584</v>
       </c>
       <c r="C6">
-        <v>6.0507999999999997</v>
+        <f t="shared" si="1"/>
+        <v>17.404299999999999</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21731782883354114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>-1.0219517743403118E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <f>H51</f>
+        <v>1794.4411317443801</v>
+      </c>
+      <c r="I6">
+        <f>K51</f>
+        <v>978.238711043075</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.45485048590469668</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="4">
+        <f>S49+S48</f>
+        <v>4.3045918833761094</v>
+      </c>
+      <c r="T6" s="4">
+        <f>U49+U48</f>
+        <v>4.4171913154808875</v>
+      </c>
+      <c r="U6" s="1">
+        <f>(T6-S6)/(ABS(S6))</f>
+        <v>2.6157980862163841E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <v>2.7290999999999999</v>
+        <f t="shared" si="0"/>
+        <v>8.8134999999999994</v>
       </c>
       <c r="C7">
-        <v>2.726</v>
+        <f t="shared" si="1"/>
+        <v>7.9698000000000002</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.5728144324048248E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <f>H52</f>
+        <v>5.5638378891337696</v>
+      </c>
+      <c r="I7">
+        <f>K52</f>
+        <v>6.6967803152293097</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20362606687520279</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4">
+        <f>S50</f>
+        <v>17.081594717124499</v>
+      </c>
+      <c r="T7" s="4">
+        <f>U50</f>
+        <v>19.5030185140253</v>
+      </c>
+      <c r="U7" s="1">
+        <f>(T7-S7)/(ABS(S7))</f>
+        <v>0.1417563077101516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1359056099079846E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+        <v>115.0211</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>80.439599999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>-0.30065353226494967</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <f>H53</f>
+        <v>40.227479633915003</v>
+      </c>
+      <c r="I8">
+        <f>K53</f>
+        <v>25.2951241925076</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.37119788704878803</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>32.685200000000002</v>
-      </c>
-      <c r="C8">
-        <v>23.2879</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.2875093314405297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11">
-        <v>3.0954000000000002</v>
-      </c>
-      <c r="C11">
-        <v>1.9286000000000001</v>
-      </c>
-      <c r="D11">
-        <v>1.1603000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.71650000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12">
-        <v>3.7984</v>
-      </c>
-      <c r="C12">
-        <v>3.7263000000000002</v>
-      </c>
-      <c r="D12">
-        <v>4.4473000000000003</v>
-      </c>
-      <c r="E12">
-        <v>6.5819999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="S8" s="5">
+        <f>S51</f>
+        <v>432.41380743752399</v>
+      </c>
+      <c r="T8" s="5">
+        <f>U51</f>
+        <v>277.14270828136699</v>
+      </c>
+      <c r="U8" s="3">
+        <f>(T8-S8)/(ABS(S8))</f>
+        <v>-0.3590798824771359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <f>H54</f>
+        <v>6.3484558693051003</v>
+      </c>
+      <c r="I9">
+        <f>K54</f>
+        <v>6.81498709414437</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3487354160396173E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <f>H55</f>
+        <v>35.368208023467602</v>
+      </c>
+      <c r="I10">
+        <f>K55</f>
+        <v>22.4143988649449</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36625573876764006</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <f>H56</f>
+        <v>5.3985127273913598</v>
+      </c>
+      <c r="I11">
+        <f>K56</f>
+        <v>6.5642534258666396</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.21593738078275918</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <f>H57</f>
+        <v>35.727752166026903</v>
+      </c>
+      <c r="I12">
+        <f>K57</f>
+        <v>22.824899985721299</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.3611436879752758</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="B13">
-        <v>18.091699999999999</v>
+        <v>7.4358000000000004</v>
       </c>
       <c r="C13">
-        <v>11.651300000000001</v>
+        <v>3.5394000000000001</v>
       </c>
       <c r="D13">
-        <v>8.9034999999999993</v>
+        <v>1.5143</v>
       </c>
       <c r="E13">
-        <v>7.6029999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <f>H58</f>
+        <v>6.0306441130110802</v>
+      </c>
+      <c r="I13">
+        <f>K58</f>
+        <v>6.5652373750340898</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8646129999551404E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="B14">
-        <v>4.9706000000000001</v>
+        <v>10.621</v>
       </c>
       <c r="C14">
-        <v>4.8954000000000004</v>
+        <v>20.614899999999999</v>
       </c>
       <c r="D14">
-        <v>6.0507999999999997</v>
+        <v>27.640599999999999</v>
       </c>
       <c r="E14">
-        <v>8.3055000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>28.4208</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f>H59</f>
+        <v>35.349015144250799</v>
+      </c>
+      <c r="I14">
+        <f>K59</f>
+        <v>22.3796903638356</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36689352525071817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="B15">
-        <v>2.7290999999999999</v>
+        <v>47.5518</v>
       </c>
       <c r="C15">
-        <v>2.3353000000000002</v>
+        <v>17.683599999999998</v>
       </c>
       <c r="D15">
-        <v>2.726</v>
+        <v>7.8723000000000001</v>
       </c>
       <c r="E15">
-        <v>2.8393999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5.8662999999999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <f>H60</f>
+        <v>5.75134787318206</v>
+      </c>
+      <c r="I15">
+        <f>K60</f>
+        <v>6.6492313314214204</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15611704908793608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="B16">
-        <v>32.685200000000002</v>
+        <v>13.463699999999999</v>
       </c>
       <c r="C16">
-        <v>24.536899999999999</v>
+        <v>22.654199999999999</v>
       </c>
       <c r="D16">
-        <v>23.2879</v>
+        <v>26.919899999999998</v>
+      </c>
+      <c r="E16">
+        <v>34.181399999999996</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16">
+        <f>H61</f>
+        <v>35.747679835966203</v>
+      </c>
+      <c r="I16">
+        <f>K61</f>
+        <v>22.733917484848199</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36404495091244188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17">
+        <v>4.9633000000000003</v>
+      </c>
+      <c r="C17">
+        <v>2.0813999999999999</v>
+      </c>
+      <c r="D17">
+        <v>2.0859000000000001</v>
+      </c>
+      <c r="E17">
+        <v>3.0547</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <f>H62</f>
+        <v>5.7663513522972103</v>
+      </c>
+      <c r="I17">
+        <f>K62</f>
+        <v>6.29690825290775</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2009117758524273E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18">
+        <v>84.035600000000002</v>
+      </c>
+      <c r="C18">
+        <v>66.573599999999999</v>
+      </c>
+      <c r="D18">
+        <v>66.033100000000005</v>
+      </c>
+      <c r="E18">
+        <v>72.191699999999997</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <f>H63</f>
+        <v>35.488825183120902</v>
+      </c>
+      <c r="I18">
+        <f>K63</f>
+        <v>22.514065866750499</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36560126319823688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <f>H64</f>
+        <v>5.4661075658038101</v>
+      </c>
+      <c r="I19">
+        <f>K64</f>
+        <v>5.7438175343530702</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0805800143163098E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f>H65</f>
+        <v>35.862522777025298</v>
+      </c>
+      <c r="I20">
+        <f>K65</f>
+        <v>22.827678048648</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36346703240653905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <f>H66</f>
+        <v>5.1781021221354102</v>
+      </c>
+      <c r="I21">
+        <f>K66</f>
+        <v>5.8227145998409204</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12448817394889015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22">
+        <f>H67</f>
+        <v>35.464156944071298</v>
+      </c>
+      <c r="I22">
+        <f>K67</f>
+        <v>22.578114752471802</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36335396924622831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23">
+        <v>10.240399999999999</v>
+      </c>
+      <c r="C23">
+        <v>6.2316000000000003</v>
+      </c>
+      <c r="D23">
+        <v>3.4906000000000001</v>
+      </c>
+      <c r="E23">
+        <v>1.7076</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f>H68</f>
+        <v>5.7422702157383299</v>
+      </c>
+      <c r="I23">
+        <f>K68</f>
+        <v>5.7639650079024003</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7780862531703358E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24">
+        <v>13.7919</v>
+      </c>
+      <c r="C24">
+        <v>13.577400000000001</v>
+      </c>
+      <c r="D24">
+        <v>17.855799999999999</v>
+      </c>
+      <c r="E24">
+        <v>17.6371</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <f>H69</f>
+        <v>35.914913601561302</v>
+      </c>
+      <c r="I24">
+        <f>K69</f>
+        <v>22.788847596193801</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.3654767529441274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25">
+        <v>64.591300000000004</v>
+      </c>
+      <c r="C25">
+        <v>41.250300000000003</v>
+      </c>
+      <c r="D25">
+        <v>33.719000000000001</v>
+      </c>
+      <c r="E25">
+        <v>32.230600000000003</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25">
+        <f>H70</f>
+        <v>5.5923028456199599</v>
+      </c>
+      <c r="I25">
+        <f>K70</f>
+        <v>6.8432280688244198</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22368696004799127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26">
+        <v>17.584</v>
+      </c>
+      <c r="C26">
+        <v>17.4847</v>
+      </c>
+      <c r="D26">
+        <v>17.404299999999999</v>
+      </c>
+      <c r="E26">
+        <v>25.5242</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26">
+        <f>H71</f>
+        <v>35.500245858191199</v>
+      </c>
+      <c r="I26">
+        <f>K71</f>
+        <v>22.492718489112701</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36640668408433541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27">
+        <v>8.8134999999999994</v>
+      </c>
+      <c r="C27">
+        <v>7.9751000000000003</v>
+      </c>
+      <c r="D27">
+        <v>7.9698000000000002</v>
+      </c>
+      <c r="E27">
+        <v>10.7059</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <f>H72</f>
+        <v>5.4644389703628802</v>
+      </c>
+      <c r="I27">
+        <f>K72</f>
+        <v>5.9142964000375899</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2324540929923834E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28">
+        <v>115.0211</v>
+      </c>
+      <c r="C28">
+        <v>86.519000000000005</v>
+      </c>
+      <c r="D28">
+        <v>80.439599999999999</v>
+      </c>
+      <c r="E28">
+        <v>87.805400000000006</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28">
+        <f>H73</f>
+        <v>35.904369498447799</v>
+      </c>
+      <c r="I28">
+        <f>K73</f>
+        <v>22.8666331296103</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36312394705611362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29">
+        <f>H74</f>
+        <v>5.1843202621932498</v>
+      </c>
+      <c r="I29">
+        <f>K74</f>
+        <v>6.8814182778661603</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32735207893096974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <f>H75</f>
+        <v>35.468367013192101</v>
+      </c>
+      <c r="I30">
+        <f>K75</f>
+        <v>22.537598302411499</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.3645718650078007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31">
+        <f>H76</f>
+        <v>5.7227458144297598</v>
+      </c>
+      <c r="I31">
+        <f>K76</f>
+        <v>5.1716049830608197</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.630706119766011E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32">
+        <f>H77</f>
+        <v>35.908281288395898</v>
+      </c>
+      <c r="I32">
+        <f>K77</f>
+        <v>22.930253865235901</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36142157066576086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>52.400100000000002</v>
+      </c>
+      <c r="D33">
+        <v>79.634299999999996</v>
+      </c>
+      <c r="E33">
+        <v>91.007900000000006</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33">
+        <f>H78</f>
+        <v>5.6253586253864603</v>
+      </c>
+      <c r="I33">
+        <f>K78</f>
+        <v>6.2992339002832498</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11979241143056804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-94.095399999999998</v>
+      </c>
+      <c r="D34">
+        <v>-160.24469999999999</v>
+      </c>
+      <c r="E34">
+        <v>-167.59010000000001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34">
+        <f>H79</f>
+        <v>35.496439767826203</v>
+      </c>
+      <c r="I34">
+        <f>K79</f>
+        <v>22.836313930590599</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.35665903172381475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>62.811900000000001</v>
+      </c>
+      <c r="D35">
+        <v>83.444800000000001</v>
+      </c>
+      <c r="E35">
+        <v>87.663399999999996</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35">
+        <f>H80</f>
+        <v>5.4772093098218804</v>
+      </c>
+      <c r="I35">
+        <f>K80</f>
+        <v>5.3864788933752399</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.6565081105069372E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-68.260999999999996</v>
+      </c>
+      <c r="D36">
+        <v>-99.943600000000004</v>
+      </c>
+      <c r="E36">
+        <v>-153.87729999999999</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <f>H81</f>
+        <v>35.926162253986099</v>
+      </c>
+      <c r="I36">
+        <f>K81</f>
+        <v>22.8904626493857</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.36284698355594758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>58.063400000000001</v>
+      </c>
+      <c r="D37">
+        <v>57.973100000000002</v>
+      </c>
+      <c r="E37">
+        <v>38.455100000000002</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <f>H82</f>
+        <v>5.16464759334304</v>
+      </c>
+      <c r="I37">
+        <f>K82</f>
+        <v>5.7425907495556698</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11190369638338311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>20.779299999999999</v>
+      </c>
+      <c r="D38">
+        <v>21.422499999999999</v>
+      </c>
+      <c r="E38">
+        <v>14.0939</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <f>H83</f>
+        <v>35.486034318441398</v>
+      </c>
+      <c r="I38">
+        <f>K83</f>
+        <v>22.837918638843998</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.35642516619628078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="G39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="2">
+        <f>SUM(H7,H9,H11,H13,H15,H17,H19,H21,H23,H25,H27,H29,H31,H33,H35,H37)</f>
+        <v>89.476653149155339</v>
+      </c>
+      <c r="I39" s="2">
+        <f>SUM(I7,I9,I11,I13,I15,I17,I19,I21,I23,I25,I27,I29,I31,I33,I35,I37)</f>
+        <v>99.156746209703115</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="3"/>
+        <v>0.10818568553755921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="G40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="2">
+        <f>SUM(H8,H10,H12,H14,H16,H18,H20,H22,H24,H26,H28,H30,H32,H34,H36,H38)</f>
+        <v>574.84045330788604</v>
+      </c>
+      <c r="I40" s="2">
+        <f>SUM(I8,I10,I12,I14,I16,I18,I20,I22,I24,I26,I28,I30,I32,I34,I36,I38)</f>
+        <v>365.74863616111242</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.36373887040059011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <f>H84</f>
+        <v>83.778830391752507</v>
+      </c>
+      <c r="I41">
+        <f>K84</f>
+        <v>52.767153135742099</v>
+      </c>
+      <c r="J41" s="1">
+        <f>(I41-H41)/(ABS(H41))</f>
+        <v>-0.3701612580528853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>H85</f>
+        <v>38.923393358619499</v>
+      </c>
+      <c r="I42">
+        <f>K85</f>
+        <v>38.204568043735499</v>
+      </c>
+      <c r="J42" s="1">
+        <f>(I42-H42)/(ABS(H42))</f>
+        <v>-1.8467693920237768E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>39.146999999999998</v>
+      </c>
+      <c r="D43">
+        <v>65.913799999999995</v>
+      </c>
+      <c r="E43">
+        <v>83.3249</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2">
+        <f>H86</f>
+        <v>2666.17658709849</v>
+      </c>
+      <c r="I43" s="2">
+        <f>K86</f>
+        <v>1614.57248498794</v>
+      </c>
+      <c r="J43" s="3">
+        <f>(I43-H43)/(ABS(H43))</f>
+        <v>-0.39442402547498751</v>
+      </c>
+      <c r="R43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1.5557000000000001</v>
+      </c>
+      <c r="D44">
+        <v>-29.465299999999999</v>
+      </c>
+      <c r="E44">
+        <v>-27.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>36.136499999999998</v>
+      </c>
+      <c r="D45">
+        <v>47.796300000000002</v>
+      </c>
+      <c r="E45">
+        <v>50.1008</v>
+      </c>
+      <c r="S45">
+        <v>10.2773689376482</v>
+      </c>
+      <c r="T45">
+        <v>8.1471722043043506</v>
+      </c>
+      <c r="U45">
+        <v>6.2822829115338701</v>
+      </c>
+      <c r="V45">
+        <v>5.4199892396082996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="D46">
+        <v>1.0215000000000001</v>
+      </c>
+      <c r="E46">
+        <v>-45.155999999999999</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="S46">
+        <v>1.6786557270081099</v>
+      </c>
+      <c r="T46">
+        <v>1.31978013767638</v>
+      </c>
+      <c r="U46">
+        <v>1.0474309294178099</v>
+      </c>
+      <c r="V46">
+        <v>0.90162834241860002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>9.5121000000000002</v>
+      </c>
+      <c r="D47">
+        <v>9.5722000000000005</v>
+      </c>
+      <c r="E47">
+        <v>-21.472000000000001</v>
+      </c>
+      <c r="S47">
+        <v>399.07159617236698</v>
+      </c>
+      <c r="T47">
+        <v>317.537947208091</v>
+      </c>
+      <c r="U47">
+        <v>245.89278461090899</v>
+      </c>
+      <c r="V47">
+        <v>212.38713138342999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>24.779900000000001</v>
+      </c>
+      <c r="D48">
+        <v>30.0654</v>
+      </c>
+      <c r="E48">
+        <v>23.6615</v>
+      </c>
+      <c r="H48">
+        <v>10.7328959439632</v>
+      </c>
+      <c r="I48">
+        <v>9.0053131488520108</v>
+      </c>
+      <c r="J48">
+        <v>7.4786529786229003</v>
+      </c>
+      <c r="K48">
+        <v>5.6265775954835702</v>
+      </c>
+      <c r="S48">
+        <v>0.15839785683673899</v>
+      </c>
+      <c r="T48">
+        <v>0.125650092972629</v>
+      </c>
+      <c r="U48">
+        <v>9.2373110106477502E-2</v>
+      </c>
+      <c r="V48">
+        <v>7.8323001136515205E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="8:22">
+      <c r="H49">
+        <v>71.5126143304321</v>
+      </c>
+      <c r="I49">
+        <v>71.525303147228996</v>
+      </c>
+      <c r="J49">
+        <v>104.066840976893</v>
+      </c>
+      <c r="K49">
+        <v>72.362691718504294</v>
+      </c>
+      <c r="S49">
+        <v>4.1461940265393702</v>
+      </c>
+      <c r="T49">
+        <v>4.4449151547430796</v>
+      </c>
+      <c r="U49">
+        <v>4.3248182053744104</v>
+      </c>
+      <c r="V49">
+        <v>4.4428524303978598</v>
+      </c>
+    </row>
+    <row r="50" spans="8:22">
+      <c r="H50">
+        <v>2.4706148723044699</v>
+      </c>
+      <c r="I50">
+        <v>2.4655922004303501</v>
+      </c>
+      <c r="J50">
+        <v>2.4590081833867599</v>
+      </c>
+      <c r="K50">
+        <v>2.4674010805812698</v>
+      </c>
+      <c r="S50">
+        <v>17.081594717124499</v>
+      </c>
+      <c r="T50">
+        <v>16.9120765354353</v>
+      </c>
+      <c r="U50">
+        <v>19.5030185140253</v>
+      </c>
+      <c r="V50">
+        <v>19.5275014351162</v>
+      </c>
+    </row>
+    <row r="51" spans="8:22">
+      <c r="H51">
+        <v>1794.4411317443801</v>
+      </c>
+      <c r="I51">
+        <v>1519.87888993767</v>
+      </c>
+      <c r="J51">
+        <v>1273.54037882185</v>
+      </c>
+      <c r="K51">
+        <v>978.238711043075</v>
+      </c>
+      <c r="S51">
+        <v>432.41380743752399</v>
+      </c>
+      <c r="T51">
+        <v>348.48754133322302</v>
+      </c>
+      <c r="U51">
+        <v>277.14270828136699</v>
+      </c>
+      <c r="V51">
+        <v>242.757425832107</v>
+      </c>
+    </row>
+    <row r="52" spans="8:22">
+      <c r="H52">
+        <v>5.5638378891337696</v>
+      </c>
+      <c r="I52">
+        <v>5.6238067702802397</v>
+      </c>
+      <c r="J52">
+        <v>6.1055147953798903</v>
+      </c>
+      <c r="K52">
+        <v>6.6967803152293097</v>
+      </c>
+    </row>
+    <row r="53" spans="8:22">
+      <c r="H53">
+        <v>40.227479633915003</v>
+      </c>
+      <c r="I53">
+        <v>34.399144729785597</v>
+      </c>
+      <c r="J53">
+        <v>29.542568059603202</v>
+      </c>
+      <c r="K53">
+        <v>25.2951241925076</v>
+      </c>
+    </row>
+    <row r="54" spans="8:22">
+      <c r="H54">
+        <v>6.3484558693051003</v>
+      </c>
+      <c r="I54">
+        <v>6.0350905586577701</v>
+      </c>
+      <c r="J54">
+        <v>6.3935266485297699</v>
+      </c>
+      <c r="K54">
+        <v>6.81498709414437</v>
+      </c>
+    </row>
+    <row r="55" spans="8:22">
+      <c r="H55">
+        <v>35.368208023467602</v>
+      </c>
+      <c r="I55">
+        <v>29.926628505724398</v>
+      </c>
+      <c r="J55">
+        <v>25.826104783944299</v>
+      </c>
+      <c r="K55">
+        <v>22.4143988649449</v>
+      </c>
+    </row>
+    <row r="56" spans="8:22">
+      <c r="H56">
+        <v>5.3985127273913598</v>
+      </c>
+      <c r="I56">
+        <v>5.7979986540545099</v>
+      </c>
+      <c r="J56">
+        <v>6.0668147312522596</v>
+      </c>
+      <c r="K56">
+        <v>6.5642534258666396</v>
+      </c>
+    </row>
+    <row r="57" spans="8:22">
+      <c r="H57">
+        <v>35.727752166026903</v>
+      </c>
+      <c r="I57">
+        <v>30.2021381697907</v>
+      </c>
+      <c r="J57">
+        <v>26.047830705212</v>
+      </c>
+      <c r="K57">
+        <v>22.824899985721299</v>
+      </c>
+    </row>
+    <row r="58" spans="8:22">
+      <c r="H58">
+        <v>6.0306441130110802</v>
+      </c>
+      <c r="I58">
+        <v>6.0851962513843203</v>
+      </c>
+      <c r="J58">
+        <v>5.5429889813021296</v>
+      </c>
+      <c r="K58">
+        <v>6.5652373750340898</v>
+      </c>
+    </row>
+    <row r="59" spans="8:22">
+      <c r="H59">
+        <v>35.349015144250799</v>
+      </c>
+      <c r="I59">
+        <v>29.911411909206301</v>
+      </c>
+      <c r="J59">
+        <v>25.802736302294299</v>
+      </c>
+      <c r="K59">
+        <v>22.3796903638356</v>
+      </c>
+    </row>
+    <row r="60" spans="8:22">
+      <c r="H60">
+        <v>5.75134787318206</v>
+      </c>
+      <c r="I60">
+        <v>5.27121411319267</v>
+      </c>
+      <c r="J60">
+        <v>5.4854495835031303</v>
+      </c>
+      <c r="K60">
+        <v>6.6492313314214204</v>
+      </c>
+    </row>
+    <row r="61" spans="8:22">
+      <c r="H61">
+        <v>35.747679835966203</v>
+      </c>
+      <c r="I61">
+        <v>30.2863704785956</v>
+      </c>
+      <c r="J61">
+        <v>26.173353239085699</v>
+      </c>
+      <c r="K61">
+        <v>22.733917484848199</v>
+      </c>
+    </row>
+    <row r="62" spans="8:22">
+      <c r="H62">
+        <v>5.7663513522972103</v>
+      </c>
+      <c r="I62">
+        <v>5.6770413942535596</v>
+      </c>
+      <c r="J62">
+        <v>6.0988704569926702</v>
+      </c>
+      <c r="K62">
+        <v>6.29690825290775</v>
+      </c>
+    </row>
+    <row r="63" spans="8:22">
+      <c r="H63">
+        <v>35.488825183120902</v>
+      </c>
+      <c r="I63">
+        <v>29.8969881089164</v>
+      </c>
+      <c r="J63">
+        <v>25.787985801339399</v>
+      </c>
+      <c r="K63">
+        <v>22.514065866750499</v>
+      </c>
+    </row>
+    <row r="64" spans="8:22">
+      <c r="H64">
+        <v>5.4661075658038101</v>
+      </c>
+      <c r="I64">
+        <v>5.6109710804601702</v>
+      </c>
+      <c r="J64">
+        <v>5.5842284340766497</v>
+      </c>
+      <c r="K64">
+        <v>5.7438175343530702</v>
+      </c>
+    </row>
+    <row r="65" spans="8:11">
+      <c r="H65">
+        <v>35.862522777025298</v>
+      </c>
+      <c r="I65">
+        <v>30.427226824626398</v>
+      </c>
+      <c r="J65">
+        <v>26.2831597626373</v>
+      </c>
+      <c r="K65">
+        <v>22.827678048648</v>
+      </c>
+    </row>
+    <row r="66" spans="8:11">
+      <c r="H66">
+        <v>5.1781021221354102</v>
+      </c>
+      <c r="I66">
+        <v>5.5308920107473396</v>
+      </c>
+      <c r="J66">
+        <v>5.5629124842017701</v>
+      </c>
+      <c r="K66">
+        <v>5.8227145998409204</v>
+      </c>
+    </row>
+    <row r="67" spans="8:11">
+      <c r="H67">
+        <v>35.464156944071298</v>
+      </c>
+      <c r="I67">
+        <v>29.945177635903899</v>
+      </c>
+      <c r="J67">
+        <v>25.893988559244701</v>
+      </c>
+      <c r="K67">
+        <v>22.578114752471802</v>
+      </c>
+    </row>
+    <row r="68" spans="8:11">
+      <c r="H68">
+        <v>5.7422702157383299</v>
+      </c>
+      <c r="I68">
+        <v>5.3523199093787497</v>
+      </c>
+      <c r="J68">
+        <v>5.6785354938510997</v>
+      </c>
+      <c r="K68">
+        <v>5.7639650079024003</v>
+      </c>
+    </row>
+    <row r="69" spans="8:11">
+      <c r="H69">
+        <v>35.914913601561302</v>
+      </c>
+      <c r="I69">
+        <v>30.468569494101601</v>
+      </c>
+      <c r="J69">
+        <v>26.1965505430082</v>
+      </c>
+      <c r="K69">
+        <v>22.788847596193801</v>
+      </c>
+    </row>
+    <row r="70" spans="8:11">
+      <c r="H70">
+        <v>5.5923028456199599</v>
+      </c>
+      <c r="I70">
+        <v>5.5623924701408596</v>
+      </c>
+      <c r="J70">
+        <v>6.5530546369542604</v>
+      </c>
+      <c r="K70">
+        <v>6.8432280688244198</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11">
+      <c r="H71">
+        <v>35.500245858191199</v>
+      </c>
+      <c r="I71">
+        <v>29.945422206425199</v>
+      </c>
+      <c r="J71">
+        <v>25.796279869929201</v>
+      </c>
+      <c r="K71">
+        <v>22.492718489112701</v>
+      </c>
+    </row>
+    <row r="72" spans="8:11">
+      <c r="H72">
+        <v>5.4644389703628802</v>
+      </c>
+      <c r="I72">
+        <v>5.0512107167480096</v>
+      </c>
+      <c r="J72">
+        <v>5.8015936253513898</v>
+      </c>
+      <c r="K72">
+        <v>5.9142964000375899</v>
+      </c>
+    </row>
+    <row r="73" spans="8:11">
+      <c r="H73">
+        <v>35.904369498447799</v>
+      </c>
+      <c r="I73">
+        <v>30.371694713503999</v>
+      </c>
+      <c r="J73">
+        <v>26.252387429950801</v>
+      </c>
+      <c r="K73">
+        <v>22.8666331296103</v>
+      </c>
+    </row>
+    <row r="74" spans="8:11">
+      <c r="H74">
+        <v>5.1843202621932498</v>
+      </c>
+      <c r="I74">
+        <v>5.7252239897669801</v>
+      </c>
+      <c r="J74">
+        <v>6.4270871039475104</v>
+      </c>
+      <c r="K74">
+        <v>6.8814182778661603</v>
+      </c>
+    </row>
+    <row r="75" spans="8:11">
+      <c r="H75">
+        <v>35.468367013192101</v>
+      </c>
+      <c r="I75">
+        <v>29.974713274641701</v>
+      </c>
+      <c r="J75">
+        <v>25.814328831939001</v>
+      </c>
+      <c r="K75">
+        <v>22.537598302411499</v>
+      </c>
+    </row>
+    <row r="76" spans="8:11">
+      <c r="H76">
+        <v>5.7227458144297598</v>
+      </c>
+      <c r="I76">
+        <v>5.3657742925354901</v>
+      </c>
+      <c r="J76">
+        <v>5.5198917211647496</v>
+      </c>
+      <c r="K76">
+        <v>5.1716049830608197</v>
+      </c>
+    </row>
+    <row r="77" spans="8:11">
+      <c r="H77">
+        <v>35.908281288395898</v>
+      </c>
+      <c r="I77">
+        <v>30.422352658250901</v>
+      </c>
+      <c r="J77">
+        <v>26.297267638262198</v>
+      </c>
+      <c r="K77">
+        <v>22.930253865235901</v>
+      </c>
+    </row>
+    <row r="78" spans="8:11">
+      <c r="H78">
+        <v>5.6253586253864603</v>
+      </c>
+      <c r="I78">
+        <v>5.5676625566121496</v>
+      </c>
+      <c r="J78">
+        <v>5.95896886589576</v>
+      </c>
+      <c r="K78">
+        <v>6.2992339002832498</v>
+      </c>
+    </row>
+    <row r="79" spans="8:11">
+      <c r="H79">
+        <v>35.496439767826203</v>
+      </c>
+      <c r="I79">
+        <v>29.967565659579801</v>
+      </c>
+      <c r="J79">
+        <v>26.1879625805513</v>
+      </c>
+      <c r="K79">
+        <v>22.836313930590599</v>
+      </c>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80">
+        <v>5.4772093098218804</v>
+      </c>
+      <c r="I80">
+        <v>5.0695040100998501</v>
+      </c>
+      <c r="J80">
+        <v>4.9569425581940703</v>
+      </c>
+      <c r="K80">
+        <v>5.3864788933752399</v>
+      </c>
+    </row>
+    <row r="81" spans="8:11">
+      <c r="H81">
+        <v>35.926162253986099</v>
+      </c>
+      <c r="I81">
+        <v>30.417611829250099</v>
+      </c>
+      <c r="J81">
+        <v>26.357683695110701</v>
+      </c>
+      <c r="K81">
+        <v>22.8904626493857</v>
+      </c>
+    </row>
+    <row r="82" spans="8:11">
+      <c r="H82">
+        <v>5.16464759334304</v>
+      </c>
+      <c r="I82">
+        <v>5.6940882893823597</v>
+      </c>
+      <c r="J82">
+        <v>5.7377515250578099</v>
+      </c>
+      <c r="K82">
+        <v>5.7425907495556698</v>
+      </c>
+    </row>
+    <row r="83" spans="8:11">
+      <c r="H83">
+        <v>35.486034318441398</v>
+      </c>
+      <c r="I83">
+        <v>29.977398691033699</v>
+      </c>
+      <c r="J83">
+        <v>26.1808441293554</v>
+      </c>
+      <c r="K83">
+        <v>22.837918638843998</v>
+      </c>
+    </row>
+    <row r="84" spans="8:11">
+      <c r="H84">
+        <v>83.778830391752507</v>
+      </c>
+      <c r="I84">
+        <v>114.33058173970301</v>
+      </c>
+      <c r="J84">
+        <v>52.625193124520003</v>
+      </c>
+      <c r="K84">
+        <v>52.767153135742099</v>
+      </c>
+    </row>
+    <row r="85" spans="8:11">
+      <c r="H85">
+        <v>38.923393358619499</v>
+      </c>
+      <c r="I85">
+        <v>38.275994853619103</v>
+      </c>
+      <c r="J85">
+        <v>38.204942564398799</v>
+      </c>
+      <c r="K85">
+        <v>38.204568043735499</v>
+      </c>
+    </row>
+    <row r="86" spans="8:11">
+      <c r="H86">
+        <v>2666.17658709849</v>
+      </c>
+      <c r="I86">
+        <v>2331.0424769845299</v>
+      </c>
+      <c r="J86">
+        <v>1992.2901802268</v>
+      </c>
+      <c r="K86">
+        <v>1614.57248498794</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
